--- a/biology/Histoire de la zoologie et de la botanique/Georges_Le_Mesle/Georges_Le_Mesle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Georges_Le_Mesle/Georges_Le_Mesle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Le Mesle, de son nom complet Georges Paul le Mesle, né le 21 août 1828 à Paris[1] et mort le 31 décembre 1895 à Bône (Algérie)[2] et inhumé à Nargis[3], est un géologue, paléontologue, archéologue et collectionneur français, correspondant du Muséum national d'histoire naturelle. Il est membre de la commission scientifique de la Tunisie[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Le Mesle, de son nom complet Georges Paul le Mesle, né le 21 août 1828 à Paris et mort le 31 décembre 1895 à Bône (Algérie) et inhumé à Nargis, est un géologue, paléontologue, archéologue et collectionneur français, correspondant du Muséum national d'histoire naturelle. Il est membre de la commission scientifique de la Tunisie.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Paul le Mesle est le fils de Jean Thomas Le Mesle, maire de Nargis, et d'Elisabeth d'Arcy. Il épouse Juliette de Menou.
-En 1855, il acquiert le château de la Houssinière, sur les bords de l'Erdre à Nantes. Il fait remplacer, sur les plans de l'architecte Henri Parent, l'ancien manoir par une nouveau château de type chalet, composé de vingt-deux pièces sur quatre niveaux. Lemesle, ruiné par ses collections, est contraint de l'hypothéquer[5]. 
+En 1855, il acquiert le château de la Houssinière, sur les bords de l'Erdre à Nantes. Il fait remplacer, sur les plans de l'architecte Henri Parent, l'ancien manoir par une nouveau château de type chalet, composé de vingt-deux pièces sur quatre niveaux. Lemesle, ruiné par ses collections, est contraint de l'hypothéquer. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Georges Le Mesle, Mission géologique en avril-mai-juin 1887 : Journal de voyage, coll. « Exploration scientifique de la Tunisie », 1888, 44 p. (lire en ligne)</t>
         </is>
